--- a/biology/Botanique/Sorbus/Sorbus.xlsx
+++ b/biology/Botanique/Sorbus/Sorbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sorbus (les sorbiers et les alisiers ) est un genre de plantes à fleurs de la famille des Rosacées.
 Les sorbiers et les alisiers sont des arbustes ou des arbres qui croissent notamment dans les forêts collinéennes et montagnardes. Plusieurs espèces ou hybrides sont cultivés comme arbres d'ornement. Les espèces de Sorbus sont caractérisées par des fruits globuleux, rouge corail, orange ou brun, appréciés des oiseaux, appelés alises chez les alisiers et sorbes chez les sorbiers. Leur bois blanc rougeâtre, rouge brunâtre, au grain serré, est utilisé en ébénisterie. Alisier désigne les espèces à feuilles simples et Sorbier les espèces à feuilles composées.
-Selon l’Union internationale pour la conservation de la nature, les sorbiers sont particulièrement en danger, les trois quarts des 170 espèces européennes du genre Sorbus (au sens large, voir la section Liste des espèces) étant considérées comme menacées de disparition[1].
+Selon l’Union internationale pour la conservation de la nature, les sorbiers sont particulièrement en danger, les trois quarts des 170 espèces européennes du genre Sorbus (au sens large, voir la section Liste des espèces) étant considérées comme menacées de disparition.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sens strict (voir la section Liste des espèces), le genre Sorbus regroupe des arbres et arbustes aux feuilles composées, blanchâtres tomenteuses ou glabres sur la face inférieure, avec entre sept et vingt paires de folioles atténuées, aiguës à obtuses avec un nombre varié de dents. Les fleurs ont des pétales blancs à roses à cramoisis et deux, trois ou cinq styles. Les fruits sont petits à gros, rouge orangé ou cramoisi ou jaune à blanc, sans lenticelles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sens strict (voir la section Liste des espèces), le genre Sorbus regroupe des arbres et arbustes aux feuilles composées, blanchâtres tomenteuses ou glabres sur la face inférieure, avec entre sept et vingt paires de folioles atténuées, aiguës à obtuses avec un nombre varié de dents. Les fleurs ont des pétales blancs à roses à cramoisis et deux, trois ou cinq styles. Les fruits sont petits à gros, rouge orangé ou cramoisi ou jaune à blanc, sans lenticelles.
 </t>
         </is>
       </c>
@@ -544,11 +558,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre a été formellement décrit en 1753 par le naturaliste suédois Carl von Linné, dans son ouvrage Species Plantarum, fondateur de la nomenclature botanique moderne. L'espèce type du genre est Sorbus aucuparia[2].
-Liste des espèces
-En 2017 a été publiée une classification du genre Sorbus actualisée selon les dernières études phylogénétiques. Afin de parvenir à la monophylie, le genre Sorbus a été éclaté en[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été formellement décrit en 1753 par le naturaliste suédois Carl von Linné, dans son ouvrage Species Plantarum, fondateur de la nomenclature botanique moderne. L'espèce type du genre est Sorbus aucuparia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sorbus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sorbus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017 a été publiée une classification du genre Sorbus actualisée selon les dernières études phylogénétiques. Afin de parvenir à la monophylie, le genre Sorbus a été éclaté en :
 cinq genres non hybrides représentant des lignées évolutives distinctes : Aria, Chamaemespilus, Cormus, Sorbus au sens strict, et Torminalis ;
 et cinq genres hybrides : Borkhausenia (Aria × Sorbus × Torminalis), Hedlundia (Aria × Sorbus), Karpatiosorbus (Aria × Torminalis), Majovskya (Aria × Chamaemespilus) et Normeyera (Aria × Chamaemespilus × Sorbus).
 Les espèces reclassées comprennent notamment :
@@ -560,7 +611,7 @@
 l'Alisier de Mougeot (Sorbus mougeotii), renommée Hedlundia mougeotii ;
 l'Alisier de Reims (Sorbus remensis), renommée Karpatiosorbus remensis ;
 l'Alisier torminal (Sorbus torminalis), renommée Torminalis glaberrima.
-Sorbus au sens strict regroupe 104 espèces selon Plants of the World online (POWO)                (7 avril 2024)[3] :
+Sorbus au sens strict regroupe 104 espèces selon Plants of the World online (POWO)                (7 avril 2024) :
 Sorbus albopilosa T.T.Yu &amp; L.T.Lu
 Sorbus americana Marshall
 Sorbus amoena McAll.
@@ -667,52 +718,7 @@
 Sorbus wilsoniana C.K.Schneid.
 Sorbus ×yokouchii M.Mizush. ex T.Shimizu
 Sorbus zayuensis T.T.Yu &amp; L.T.Lu
-Synonymes
-Sorbus L. a pour synonymes :
-Alniaria Rushforth[4]
-Aucuparia Medik.[4],[2]
-Aucuparia Rivinus ex Medik.[3]
-Dunnaria Rushforth[4]
-Griffitharia Rushforth[4]
-Pleiosorbus L.H.Zhou &amp; C.Y.Wu[4]
-Pyrus sect. Sorbus (L.) DC.[2]
-Pyrus subgen. Sorbus (L.) Reichenb[2].
-Sorbus sect. Aucuparia (Medik.) Fritsch[2]
-Sorbus subgen. Aucuparia (Medik.) Düll[2]
-Thomsonaria Rushforth[4]
-Wilsonaria Rushforth[4]
-×Sorbotoraria Mezhenskyj, nom. nud.[3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sorbus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sorbus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Parasites</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le papillon de nuit (hétérocère) suivant se nourrit de sorbier : 
-la phalène du sureau ou phalène soufrée, Ourapteryx sambucaria (Geometridae).</t>
+</t>
         </is>
       </c>
     </row>
@@ -737,15 +743,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Le sorbier dans la tradition</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Selon l'anthropologue écossais Sir James George Frazer, le sorbier pouvait être épiphyte. Dans ce cas il avait un pouvoir magique considérable et était appelé « sorbier volant »[5]
-Dans la mythologie germanique, le sorbier est lié à Sif la femme de Thor
-Dans le folklore breton, les fées changent parfois les os de bétail avec du bois de sorbier qui contient lui aussi de la moëlle[6].
-Le sorbier était considéré comme ayant des propriétés magiques dans les cultures notamment des anciens Slaves, Scandinaves et Celtes, et jouait un rôle dans leurs rites.</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sorbus L. a pour synonymes :
+Alniaria Rushforth
+Aucuparia Medik.,
+Aucuparia Rivinus ex Medik.
+Dunnaria Rushforth
+Griffitharia Rushforth
+Pleiosorbus L.H.Zhou &amp; C.Y.Wu
+Pyrus sect. Sorbus (L.) DC.
+Pyrus subgen. Sorbus (L.) Reichenb.
+Sorbus sect. Aucuparia (Medik.) Fritsch
+Sorbus subgen. Aucuparia (Medik.) Düll
+Thomsonaria Rushforth
+Wilsonaria Rushforth
+×Sorbotoraria Mezhenskyj, nom. nud.</t>
         </is>
       </c>
     </row>
@@ -770,10 +792,80 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Parasites</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le papillon de nuit (hétérocère) suivant se nourrit de sorbier : 
+la phalène du sureau ou phalène soufrée, Ourapteryx sambucaria (Geometridae).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sorbus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sorbus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le sorbier dans la tradition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon l'anthropologue écossais Sir James George Frazer, le sorbier pouvait être épiphyte. Dans ce cas il avait un pouvoir magique considérable et était appelé « sorbier volant »
+Dans la mythologie germanique, le sorbier est lié à Sif la femme de Thor
+Dans le folklore breton, les fées changent parfois les os de bétail avec du bois de sorbier qui contient lui aussi de la moëlle.
+Le sorbier était considéré comme ayant des propriétés magiques dans les cultures notamment des anciens Slaves, Scandinaves et Celtes, et jouait un rôle dans leurs rites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sorbus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sorbus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Le sorbier dans la culture récente</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dans la série Teen Wolf, la poudre de sorbier sert à constituer des barrières contre les créatures magiques telles que les loups-garous.
 Dans la saga littéraire L'Épouvanteur, le bois de sorbier provoque une grande douleur aux sorcières. C'est pour cette raison que les épouvanteurs ont des bâtons en bois de sorbier.</t>
